--- a/鱼场/MyData.xlsx
+++ b/鱼场/MyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26325" windowHeight="8400"/>
+    <workbookView windowWidth="23145" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1152,8 +1152,8 @@
   <sheetPr/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
